--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JinXu\ZS\AutoGluon_paper_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JinXu\ZS\AutoGluon_paper_1\Analysing_Political_Executives_With_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C23E0E-8AA4-4F9F-8187-33D934110388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F211D0-B61E-46A3-ACBA-57F815636675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{378EDB80-AABE-DE4D-B3EB-B71494122494}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="131">
   <si>
     <t>importance</t>
   </si>
@@ -422,6 +422,10 @@
   </si>
   <si>
     <t>XGBoost</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -567,1676 +571,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-              <a:t>Importance</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.47118049776480031"/>
-          <c:y val="3.864734299516908E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.5100940128507931E-2"/>
-          <c:y val="2.5428331875182269E-2"/>
-          <c:w val="0.90887839194660069"/>
-          <c:h val="0.87956505436820387"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>importance!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Linear Regression</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000">
-                <a:alpha val="93000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:alpha val="94000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>importance!$A$2:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>age</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>begin_gdppc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ccode</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>entry</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>exit</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exitcode</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gender</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>numentry</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>numexit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>pop_x</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>pop_y</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>posttenurefate</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>prevtimesinoffice</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tenure</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yrbegin</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>yrborn</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>yrdied</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>yrend</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>importance!$B$2:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>7.5649999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8770000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2403000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8950000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6709999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7369999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0000000000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5009999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5759999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7699999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1549999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.7470000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.8210000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.953E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0795000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.5250000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.1580000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0314E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-205D-40D7-9694-F3D7D78DEE74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>importance!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>importance!$A$2:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>age</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>begin_gdppc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ccode</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>entry</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>exit</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exitcode</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gender</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>numentry</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>numexit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>pop_x</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>pop_y</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>posttenurefate</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>prevtimesinoffice</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tenure</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yrbegin</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>yrborn</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>yrdied</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>yrend</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>importance!$C$2:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-205D-40D7-9694-F3D7D78DEE74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>importance!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Norm Classification</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:alpha val="96000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>importance!$A$2:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>age</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>begin_gdppc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ccode</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>entry</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>exit</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exitcode</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gender</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>numentry</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>numexit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>pop_x</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>pop_y</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>posttenurefate</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>prevtimesinoffice</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tenure</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yrbegin</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>yrborn</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>yrdied</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>yrend</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>importance!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>3.7159999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5319999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2745000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1641000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0904999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7226E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3179000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2811000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0603E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5453E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5084999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4716999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.1510000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.1510000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7829999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8400000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-205D-40D7-9694-F3D7D78DEE74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>importance!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>importance!$A$2:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>age</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>begin_gdppc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ccode</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>entry</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>exit</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exitcode</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gender</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>numentry</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>numexit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>pop_x</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>pop_y</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>posttenurefate</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>prevtimesinoffice</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tenure</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yrbegin</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>yrborn</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>yrdied</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>yrend</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>importance!$E$2:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-205D-40D7-9694-F3D7D78DEE74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>importance!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Equivalent Classification</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>importance!$A$2:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>age</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>begin_gdppc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ccode</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>entry</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>exit</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exitcode</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gender</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>numentry</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>numexit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>pop_x</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>pop_y</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>posttenurefate</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>prevtimesinoffice</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tenure</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yrbegin</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>yrborn</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>yrdied</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>yrend</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>importance!$F$2:$F$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>5.3845999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6630000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8205000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5641000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4542000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2710999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1611999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0513E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6483999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3187000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0289999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5639999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.1979999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4649999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.3300000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3300000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.6600000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-205D-40D7-9694-F3D7D78DEE74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="223"/>
-        <c:overlap val="-31"/>
-        <c:axId val="394436255"/>
-        <c:axId val="405857151"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="394436255"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="405857151"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="405857151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.2000000000000002E-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="394436255"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>442911</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3CB377-0F37-4CC8-9937-3C716DF8B19D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7210,408 +5544,522 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE85160-688A-4A5C-8CE5-F9EC456C7894}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:AC58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L18" sqref="L18:AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:29">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
       <c r="D1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33">
+    <row r="2" spans="1:29" ht="16.5">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="13">
         <v>7.5649999999999997E-3</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>37</v>
+      <c r="C2" s="13">
+        <v>2.3179000000000002E-2</v>
       </c>
       <c r="D2" s="13">
-        <v>3.7159999999999999E-2</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="13">
-        <v>5.3845999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="33">
+        <v>1.6483999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="33">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="13">
         <v>5.8770000000000003E-3</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>8</v>
+      <c r="C3" s="13">
+        <v>3.0904999999999998E-2</v>
       </c>
       <c r="D3" s="13">
-        <v>3.5319999999999997E-2</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="13">
-        <v>3.6630000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
+        <v>5.3845999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="16.5">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="13">
         <v>1.2403000000000001E-2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>42</v>
+      <c r="C4" s="13">
+        <v>3.5319999999999997E-2</v>
       </c>
       <c r="D4" s="13">
-        <v>3.2745000000000003E-2</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="13">
-        <v>2.8205000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
+        <v>3.6630000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="16.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="13">
         <v>6.8950000000000001E-3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>32</v>
+      <c r="C5" s="13">
+        <v>1.5084999999999999E-2</v>
       </c>
       <c r="D5" s="13">
-        <v>3.1641000000000002E-2</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="13">
-        <v>2.5641000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="33">
+        <v>7.3300000000000004E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="16.5">
       <c r="A6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="13">
         <v>3.6709999999999998E-3</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
+      <c r="C6" s="13">
+        <v>1.5453E-2</v>
       </c>
       <c r="D6" s="13">
-        <v>3.0904999999999998E-2</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2.4542000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
+        <v>1.4649999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.5">
       <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="13">
         <v>4.7369999999999999E-3</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>9</v>
+      <c r="C7" s="13">
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="D7" s="13">
-        <v>2.7226E-2</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="13">
-        <v>2.2710999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
+        <v>2.1979999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="16.5">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="13">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>41</v>
+      <c r="C8" s="13">
+        <v>0</v>
       </c>
       <c r="D8" s="13">
-        <v>2.3179000000000002E-2</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="13">
-        <v>2.1611999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="16.5">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="13">
         <v>5.5009999999999998E-3</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>19</v>
+      <c r="C9" s="13">
+        <v>0</v>
       </c>
       <c r="D9" s="13">
-        <v>2.2811000000000001E-2</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="13">
-        <v>2.0513E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5">
+        <v>7.3300000000000004E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="16.5">
       <c r="A10" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="13">
         <v>1.5759999999999999E-3</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
+      <c r="C10" s="13">
+        <v>5.1510000000000002E-3</v>
       </c>
       <c r="D10" s="13">
-        <v>2.0603E-2</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1.6483999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5">
+        <v>2.5639999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="16.5">
       <c r="A11" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="13">
         <v>3.7699999999999999E-3</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>39</v>
+      <c r="C11" s="13">
+        <v>3.2745000000000003E-2</v>
       </c>
       <c r="D11" s="13">
-        <v>1.5453E-2</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1.3187000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="33">
+        <v>2.5641000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="16.5">
       <c r="A12" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="13">
         <v>3.1549999999999998E-3</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>40</v>
+      <c r="C12" s="13">
+        <v>3.1641000000000002E-2</v>
       </c>
       <c r="D12" s="13">
-        <v>1.5084999999999999E-2</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="13">
-        <v>4.0289999999999996E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="33">
+        <v>1.3187000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="33">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="13">
         <v>4.7470000000000004E-3</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>13</v>
+      <c r="C13" s="13">
+        <v>4.7829999999999999E-3</v>
       </c>
       <c r="D13" s="13">
-        <v>1.4716999999999999E-2</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="13">
-        <v>2.5639999999999999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33">
+        <v>4.0289999999999996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="33">
       <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="13">
         <v>2.8210000000000002E-3</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
+      <c r="C14" s="13">
+        <v>5.1510000000000002E-3</v>
       </c>
       <c r="D14" s="13">
-        <v>5.1510000000000002E-3</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="13">
-        <v>2.1979999999999999E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5">
+        <v>3.6600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="33">
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="13">
         <v>9.953E-3</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="13">
+        <v>3.7159999999999999E-2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2.4542000000000001E-2</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="13">
-        <v>5.1510000000000002E-3</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1.4649999999999999E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="33">
+      <c r="U15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="16.5">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13">
         <v>1.0795000000000001E-2</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
+      <c r="C16" s="13">
+        <v>2.0603E-2</v>
       </c>
       <c r="D16" s="13">
-        <v>4.7829999999999999E-3</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="13">
-        <v>7.3300000000000004E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5">
+        <v>2.1611999999999999E-2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="13">
+        <v>7.5649999999999997E-3</v>
+      </c>
+      <c r="M16" s="13">
+        <v>5.8770000000000003E-3</v>
+      </c>
+      <c r="N16" s="13">
+        <v>1.2403000000000001E-2</v>
+      </c>
+      <c r="O16" s="13">
+        <v>6.8950000000000001E-3</v>
+      </c>
+      <c r="P16" s="13">
+        <v>3.6709999999999998E-3</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>4.7369999999999999E-3</v>
+      </c>
+      <c r="R16" s="13">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="S16" s="13">
+        <v>5.5009999999999998E-3</v>
+      </c>
+      <c r="T16" s="13">
+        <v>1.5759999999999999E-3</v>
+      </c>
+      <c r="U16" s="13">
+        <v>3.7699999999999999E-3</v>
+      </c>
+      <c r="V16" s="13">
+        <v>3.1549999999999998E-3</v>
+      </c>
+      <c r="W16" s="13">
+        <v>4.7470000000000004E-3</v>
+      </c>
+      <c r="X16" s="13">
+        <v>2.8210000000000002E-3</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>9.953E-3</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>1.0795000000000001E-2</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>9.5250000000000005E-3</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>8.1580000000000003E-3</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>1.0314E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="16.5">
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="13">
         <v>9.5250000000000005E-3</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>22</v>
+      <c r="C17" s="13">
+        <v>2.7226E-2</v>
       </c>
       <c r="D17" s="13">
+        <v>2.8205000000000001E-2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="13">
+        <v>2.3179000000000002E-2</v>
+      </c>
+      <c r="M17" s="13">
+        <v>3.0904999999999998E-2</v>
+      </c>
+      <c r="N17" s="13">
+        <v>3.5319999999999997E-2</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1.5084999999999999E-2</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1.5453E-2</v>
+      </c>
+      <c r="Q17" s="13">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="13">
-        <v>7.3300000000000004E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="33">
+      <c r="R17" s="13">
+        <v>0</v>
+      </c>
+      <c r="S17" s="13">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <v>5.1510000000000002E-3</v>
+      </c>
+      <c r="U17" s="13">
+        <v>3.2745000000000003E-2</v>
+      </c>
+      <c r="V17" s="13">
+        <v>3.1641000000000002E-2</v>
+      </c>
+      <c r="W17" s="13">
+        <v>4.7829999999999999E-3</v>
+      </c>
+      <c r="X17" s="13">
+        <v>5.1510000000000002E-3</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>3.7159999999999999E-2</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>2.0603E-2</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>2.7226E-2</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>2.2811000000000001E-2</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>1.4716999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="16.5">
       <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="13">
         <v>8.1580000000000003E-3</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>27</v>
+      <c r="C18" s="13">
+        <v>2.2811000000000001E-2</v>
       </c>
       <c r="D18" s="13">
+        <v>2.2710999999999999E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1.6483999999999999E-2</v>
+      </c>
+      <c r="M18" s="13">
+        <v>5.3845999999999998E-2</v>
+      </c>
+      <c r="N18" s="13">
+        <v>3.6630000000000003E-2</v>
+      </c>
+      <c r="O18" s="13">
+        <v>7.3300000000000004E-4</v>
+      </c>
+      <c r="P18" s="13">
+        <v>1.4649999999999999E-3</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="R18" s="13">
         <v>0</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="S18" s="13">
+        <v>7.3300000000000004E-4</v>
+      </c>
+      <c r="T18" s="13">
+        <v>2.5639999999999999E-3</v>
+      </c>
+      <c r="U18" s="13">
+        <v>2.5641000000000001E-2</v>
+      </c>
+      <c r="V18" s="13">
+        <v>1.3187000000000001E-2</v>
+      </c>
+      <c r="W18" s="13">
+        <v>4.0289999999999996E-3</v>
+      </c>
+      <c r="X18" s="13">
         <v>3.6600000000000001E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5">
+      <c r="Y18" s="13">
+        <v>2.4542000000000001E-2</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>2.1611999999999999E-2</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>2.8205000000000001E-2</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>2.2710999999999999E-2</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>2.0513E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="16.5">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="13">
         <v>1.0314E-2</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>23</v>
+      <c r="C19" s="13">
+        <v>1.4716999999999999E-2</v>
       </c>
       <c r="D19" s="13">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>2.0513E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="16.5">
       <c r="A41" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="13">
-        <v>7.5649999999999997E-3</v>
+        <v>1.6483999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="33">
@@ -7619,7 +6067,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="13">
-        <v>5.8770000000000003E-3</v>
+        <v>5.3845999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.5">
@@ -7627,7 +6075,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="13">
-        <v>1.2403000000000001E-2</v>
+        <v>3.6630000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5">
@@ -7635,7 +6083,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="13">
-        <v>6.8950000000000001E-3</v>
+        <v>7.3300000000000004E-4</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5">
@@ -7643,7 +6091,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="13">
-        <v>3.6709999999999998E-3</v>
+        <v>1.4649999999999999E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16.5">
@@ -7651,7 +6099,7 @@
         <v>22</v>
       </c>
       <c r="B46" s="13">
-        <v>4.7369999999999999E-3</v>
+        <v>2.1979999999999999E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16.5">
@@ -7659,7 +6107,7 @@
         <v>27</v>
       </c>
       <c r="B47" s="13">
-        <v>5.0000000000000004E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16.5">
@@ -7667,7 +6115,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="13">
-        <v>5.5009999999999998E-3</v>
+        <v>7.3300000000000004E-4</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.5">
@@ -7675,7 +6123,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="13">
-        <v>1.5759999999999999E-3</v>
+        <v>2.5639999999999999E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16.5">
@@ -7683,7 +6131,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="13">
-        <v>3.7699999999999999E-3</v>
+        <v>2.5641000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16.5">
@@ -7691,7 +6139,7 @@
         <v>32</v>
       </c>
       <c r="B51" s="13">
-        <v>3.1549999999999998E-3</v>
+        <v>1.3187000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="33">
@@ -7699,7 +6147,7 @@
         <v>20</v>
       </c>
       <c r="B52" s="13">
-        <v>4.7470000000000004E-3</v>
+        <v>4.0289999999999996E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="33">
@@ -7707,7 +6155,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="13">
-        <v>2.8210000000000002E-3</v>
+        <v>3.6600000000000001E-4</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.5">
@@ -7715,7 +6163,7 @@
         <v>37</v>
       </c>
       <c r="B54" s="13">
-        <v>9.953E-3</v>
+        <v>2.4542000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5">
@@ -7723,7 +6171,7 @@
         <v>15</v>
       </c>
       <c r="B55" s="13">
-        <v>1.0795000000000001E-2</v>
+        <v>2.1611999999999999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5">
@@ -7731,7 +6179,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="13">
-        <v>9.5250000000000005E-3</v>
+        <v>2.8205000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16.5">
@@ -7739,7 +6187,7 @@
         <v>19</v>
       </c>
       <c r="B57" s="13">
-        <v>8.1580000000000003E-3</v>
+        <v>2.2710999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16.5">
@@ -7747,7 +6195,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="13">
-        <v>1.0314E-2</v>
+        <v>2.0513E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7757,6 +6205,5 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JinXu\ZS\AutoGluon_paper_1\Analysing_Political_Executives_With_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F211D0-B61E-46A3-ACBA-57F815636675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A33F31-6656-4C14-8087-F513D7C4FBE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{378EDB80-AABE-DE4D-B3EB-B71494122494}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="130">
   <si>
     <t>importance</t>
   </si>
@@ -422,10 +422,6 @@
   </si>
   <si>
     <t>XGBoost</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,7 +521,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -533,11 +529,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -554,6 +565,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5547,499 +5564,359 @@
   <dimension ref="A1:AC58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:AC18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.5">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:29" ht="33">
+      <c r="A2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="17">
+        <v>5.8770000000000003E-3</v>
+      </c>
+      <c r="C2" s="17">
+        <v>3.0904999999999998E-2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>5.3845999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="16.5">
+      <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1.2403000000000001E-2</v>
+      </c>
+      <c r="C3" s="17">
+        <v>3.5319999999999997E-2</v>
+      </c>
+      <c r="D3" s="17">
+        <v>3.6630000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="16.5">
+      <c r="A4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17">
+        <v>9.5250000000000005E-3</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2.7226E-2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2.8205000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="16.5">
+      <c r="A5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="17">
+        <v>3.7699999999999999E-3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3.2745000000000003E-2</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2.5641000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="16.5">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="17">
+        <v>9.953E-3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3.7159999999999999E-2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2.4542000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.5">
+      <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17">
+        <v>8.1580000000000003E-3</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2.2811000000000001E-2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2.2710999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="16.5">
+      <c r="A8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1.0795000000000001E-2</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2.0603E-2</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2.1611999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="16.5">
+      <c r="A9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1.0314E-2</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1.4716999999999999E-2</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2.0513E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="16.5">
+      <c r="A10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B10" s="17">
         <v>7.5649999999999997E-3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C10" s="17">
         <v>2.3179000000000002E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D10" s="17">
         <v>1.6483999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33">
-      <c r="A3" s="13" t="s">
+    <row r="11" spans="1:29" ht="16.5">
+      <c r="A11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="17">
+        <v>3.1549999999999998E-3</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3.1641000000000002E-2</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.3187000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="33">
+      <c r="A12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="17">
+        <v>4.7470000000000004E-3</v>
+      </c>
+      <c r="C12" s="17">
+        <v>4.7829999999999999E-3</v>
+      </c>
+      <c r="D12" s="17">
+        <v>4.0289999999999996E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="16.5">
+      <c r="A13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1.5759999999999999E-3</v>
+      </c>
+      <c r="C13" s="17">
+        <v>5.1510000000000002E-3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2.5639999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="16.5">
+      <c r="A14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="17">
+        <v>4.7369999999999999E-3</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2.1979999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="16.5">
+      <c r="A15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="17">
+        <v>3.6709999999999998E-3</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1.5453E-2</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1.4649999999999999E-3</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+    </row>
+    <row r="16" spans="1:29" ht="16.5">
+      <c r="A16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="17">
+        <v>6.8950000000000001E-3</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1.5084999999999999E-2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>7.3300000000000004E-4</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+    </row>
+    <row r="17" spans="1:29" ht="16.5">
+      <c r="A17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="17">
+        <v>5.5009999999999998E-3</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>7.3300000000000004E-4</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+    </row>
+    <row r="18" spans="1:29" ht="33">
+      <c r="A18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="17">
+        <v>2.8210000000000002E-3</v>
+      </c>
+      <c r="C18" s="17">
+        <v>5.1510000000000002E-3</v>
+      </c>
+      <c r="D18" s="17">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="L18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13">
-        <v>5.8770000000000003E-3</v>
-      </c>
-      <c r="C3" s="13">
-        <v>3.0904999999999998E-2</v>
-      </c>
-      <c r="D3" s="13">
-        <v>5.3845999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="16.5">
-      <c r="A4" s="13" t="s">
+      <c r="M18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13">
-        <v>1.2403000000000001E-2</v>
-      </c>
-      <c r="C4" s="13">
-        <v>3.5319999999999997E-2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>3.6630000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="16.5">
-      <c r="A5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="13">
-        <v>6.8950000000000001E-3</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1.5084999999999999E-2</v>
-      </c>
-      <c r="D5" s="13">
-        <v>7.3300000000000004E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="16.5">
-      <c r="A6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="13">
-        <v>3.6709999999999998E-3</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1.5453E-2</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1.4649999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="16.5">
-      <c r="A7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="13">
-        <v>4.7369999999999999E-3</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2.1979999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="16.5">
-      <c r="A8" s="13" t="s">
+      <c r="N18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+    </row>
+    <row r="19" spans="1:29" ht="16.5">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B19" s="17">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C19" s="17">
         <v>0</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D19" s="17">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="16.5">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="13">
-        <v>5.5009999999999998E-3</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>7.3300000000000004E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="16.5">
-      <c r="A10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="13">
-        <v>1.5759999999999999E-3</v>
-      </c>
-      <c r="C10" s="13">
-        <v>5.1510000000000002E-3</v>
-      </c>
-      <c r="D10" s="13">
-        <v>2.5639999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="16.5">
-      <c r="A11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="13">
-        <v>3.7699999999999999E-3</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3.2745000000000003E-2</v>
-      </c>
-      <c r="D11" s="13">
-        <v>2.5641000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="16.5">
-      <c r="A12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="13">
-        <v>3.1549999999999998E-3</v>
-      </c>
-      <c r="C12" s="13">
-        <v>3.1641000000000002E-2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1.3187000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="33">
-      <c r="A13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="13">
-        <v>4.7470000000000004E-3</v>
-      </c>
-      <c r="C13" s="13">
-        <v>4.7829999999999999E-3</v>
-      </c>
-      <c r="D13" s="13">
-        <v>4.0289999999999996E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="33">
-      <c r="A14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="13">
-        <v>2.8210000000000002E-3</v>
-      </c>
-      <c r="C14" s="13">
-        <v>5.1510000000000002E-3</v>
-      </c>
-      <c r="D14" s="13">
-        <v>3.6600000000000001E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="33">
-      <c r="A15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="13">
-        <v>9.953E-3</v>
-      </c>
-      <c r="C15" s="13">
-        <v>3.7159999999999999E-2</v>
-      </c>
-      <c r="D15" s="13">
-        <v>2.4542000000000001E-2</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="X15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="16.5">
-      <c r="A16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13">
-        <v>1.0795000000000001E-2</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2.0603E-2</v>
-      </c>
-      <c r="D16" s="13">
-        <v>2.1611999999999999E-2</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="13">
-        <v>7.5649999999999997E-3</v>
-      </c>
-      <c r="M16" s="13">
-        <v>5.8770000000000003E-3</v>
-      </c>
-      <c r="N16" s="13">
-        <v>1.2403000000000001E-2</v>
-      </c>
-      <c r="O16" s="13">
-        <v>6.8950000000000001E-3</v>
-      </c>
-      <c r="P16" s="13">
-        <v>3.6709999999999998E-3</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>4.7369999999999999E-3</v>
-      </c>
-      <c r="R16" s="13">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="S16" s="13">
-        <v>5.5009999999999998E-3</v>
-      </c>
-      <c r="T16" s="13">
-        <v>1.5759999999999999E-3</v>
-      </c>
-      <c r="U16" s="13">
-        <v>3.7699999999999999E-3</v>
-      </c>
-      <c r="V16" s="13">
-        <v>3.1549999999999998E-3</v>
-      </c>
-      <c r="W16" s="13">
-        <v>4.7470000000000004E-3</v>
-      </c>
-      <c r="X16" s="13">
-        <v>2.8210000000000002E-3</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>9.953E-3</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>1.0795000000000001E-2</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>9.5250000000000005E-3</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>8.1580000000000003E-3</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>1.0314E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="16.5">
-      <c r="A17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="13">
-        <v>9.5250000000000005E-3</v>
-      </c>
-      <c r="C17" s="13">
-        <v>2.7226E-2</v>
-      </c>
-      <c r="D17" s="13">
-        <v>2.8205000000000001E-2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="13">
-        <v>2.3179000000000002E-2</v>
-      </c>
-      <c r="M17" s="13">
-        <v>3.0904999999999998E-2</v>
-      </c>
-      <c r="N17" s="13">
-        <v>3.5319999999999997E-2</v>
-      </c>
-      <c r="O17" s="13">
-        <v>1.5084999999999999E-2</v>
-      </c>
-      <c r="P17" s="13">
-        <v>1.5453E-2</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="R17" s="13">
-        <v>0</v>
-      </c>
-      <c r="S17" s="13">
-        <v>0</v>
-      </c>
-      <c r="T17" s="13">
-        <v>5.1510000000000002E-3</v>
-      </c>
-      <c r="U17" s="13">
-        <v>3.2745000000000003E-2</v>
-      </c>
-      <c r="V17" s="13">
-        <v>3.1641000000000002E-2</v>
-      </c>
-      <c r="W17" s="13">
-        <v>4.7829999999999999E-3</v>
-      </c>
-      <c r="X17" s="13">
-        <v>5.1510000000000002E-3</v>
-      </c>
-      <c r="Y17" s="13">
-        <v>3.7159999999999999E-2</v>
-      </c>
-      <c r="Z17" s="13">
-        <v>2.0603E-2</v>
-      </c>
-      <c r="AA17" s="13">
-        <v>2.7226E-2</v>
-      </c>
-      <c r="AB17" s="13">
-        <v>2.2811000000000001E-2</v>
-      </c>
-      <c r="AC17" s="13">
-        <v>1.4716999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="16.5">
-      <c r="A18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="13">
-        <v>8.1580000000000003E-3</v>
-      </c>
-      <c r="C18" s="13">
-        <v>2.2811000000000001E-2</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2.2710999999999999E-2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" s="13">
-        <v>1.6483999999999999E-2</v>
-      </c>
-      <c r="M18" s="13">
-        <v>5.3845999999999998E-2</v>
-      </c>
-      <c r="N18" s="13">
-        <v>3.6630000000000003E-2</v>
-      </c>
-      <c r="O18" s="13">
-        <v>7.3300000000000004E-4</v>
-      </c>
-      <c r="P18" s="13">
-        <v>1.4649999999999999E-3</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>2.1979999999999999E-3</v>
-      </c>
-      <c r="R18" s="13">
-        <v>0</v>
-      </c>
-      <c r="S18" s="13">
-        <v>7.3300000000000004E-4</v>
-      </c>
-      <c r="T18" s="13">
-        <v>2.5639999999999999E-3</v>
-      </c>
-      <c r="U18" s="13">
-        <v>2.5641000000000001E-2</v>
-      </c>
-      <c r="V18" s="13">
-        <v>1.3187000000000001E-2</v>
-      </c>
-      <c r="W18" s="13">
-        <v>4.0289999999999996E-3</v>
-      </c>
-      <c r="X18" s="13">
-        <v>3.6600000000000001E-4</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>2.4542000000000001E-2</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>2.1611999999999999E-2</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>2.8205000000000001E-2</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>2.2710999999999999E-2</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>2.0513E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="16.5">
-      <c r="A19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="13">
-        <v>1.0314E-2</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1.4716999999999999E-2</v>
-      </c>
-      <c r="D19" s="13">
-        <v>2.0513E-2</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -6055,152 +5932,80 @@
       <c r="D21" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="16.5">
-      <c r="A41" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1.6483999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="33">
-      <c r="A42" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="13">
-        <v>5.3845999999999998E-2</v>
-      </c>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="1:2" ht="16.5">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:2" ht="16.5">
-      <c r="A43" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="13">
-        <v>3.6630000000000003E-2</v>
-      </c>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
     </row>
     <row r="44" spans="1:2" ht="16.5">
-      <c r="A44" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="13">
-        <v>7.3300000000000004E-4</v>
-      </c>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" spans="1:2" ht="16.5">
-      <c r="A45" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="13">
-        <v>1.4649999999999999E-3</v>
-      </c>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" spans="1:2" ht="16.5">
-      <c r="A46" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="13">
-        <v>2.1979999999999999E-3</v>
-      </c>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47" spans="1:2" ht="16.5">
-      <c r="A47" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="13">
-        <v>0</v>
-      </c>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" spans="1:2" ht="16.5">
-      <c r="A48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="13">
-        <v>7.3300000000000004E-4</v>
-      </c>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
     </row>
     <row r="49" spans="1:2" ht="16.5">
-      <c r="A49" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="13">
-        <v>2.5639999999999999E-3</v>
-      </c>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:2" ht="16.5">
-      <c r="A50" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="13">
-        <v>2.5641000000000001E-2</v>
-      </c>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
     </row>
     <row r="51" spans="1:2" ht="16.5">
-      <c r="A51" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="13">
-        <v>1.3187000000000001E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="33">
-      <c r="A52" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="13">
-        <v>4.0289999999999996E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="33">
-      <c r="A53" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="13">
-        <v>3.6600000000000001E-4</v>
-      </c>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="1:2" ht="16.5">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="1:2" ht="16.5">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
     </row>
     <row r="54" spans="1:2" ht="16.5">
-      <c r="A54" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="13">
-        <v>2.4542000000000001E-2</v>
-      </c>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
     </row>
     <row r="55" spans="1:2" ht="16.5">
-      <c r="A55" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="13">
-        <v>2.1611999999999999E-2</v>
-      </c>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
     </row>
     <row r="56" spans="1:2" ht="16.5">
-      <c r="A56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="13">
-        <v>2.8205000000000001E-2</v>
-      </c>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
     </row>
     <row r="57" spans="1:2" ht="16.5">
-      <c r="A57" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="13">
-        <v>2.2710999999999999E-2</v>
-      </c>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
     </row>
     <row r="58" spans="1:2" ht="16.5">
-      <c r="A58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="13">
-        <v>2.0513E-2</v>
-      </c>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A41:B58">
-    <sortCondition ref="A41"/>
+  <sortState ref="A2:D58">
+    <sortCondition descending="1" ref="D1"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
